--- a/Amazon/target/classes/Data/Data.xlsx
+++ b/Amazon/target/classes/Data/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Selenium-Open_Cart\Opencart\src\main\resources\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Badri\Documents\GitHub\Selenium-Amazon-Testing\Amazon\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCAE29CA-A630-400F-A461-3EE6999E81CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EF1512-6879-4155-B502-B09C0C0FD6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>mohamed</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t xml:space="preserve">sameh </t>
+  </si>
+  <si>
+    <t>search</t>
+  </si>
+  <si>
+    <t>iphone 14 pro max</t>
   </si>
 </sst>
 </file>
@@ -383,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -424,10 +430,19 @@
         <v>8</v>
       </c>
     </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{AD2A9ED8-664A-4151-8AD6-B29D4AA28424}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>